--- a/location_group.xlsx
+++ b/location_group.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_count</t>
+          <t>FALSE_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_percent</t>
+          <t>FALSE_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_count</t>
+          <t>TRUE_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_percent</t>
+          <t>TRUE_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -397,108 +397,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-15km</t>
+          <t>5-10km</t>
         </is>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>20.54794520547945</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>15.78947368421053</v>
+        <v>22.97297297297298</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>10.25641025641026</v>
+        <v>23.07692307692308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5-10km</t>
+          <t>&lt;5km</t>
         </is>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>23.28767123287671</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>5.263157894736842</v>
+        <v>44.5945945945946</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>23.07692307692308</v>
+        <v>61.53846153846154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&lt;5km</t>
+          <t>&gt;10km</t>
         </is>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>43.83561643835616</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>68.42105263157895</v>
+        <v>22.97297297297298</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>61.53846153846154</v>
+        <v>10.25641025641026</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>&gt;15km</t>
-        </is>
-      </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2.73972602739726</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="D5">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>9.58904109589041</v>
-      </c>
-      <c r="D6">
+      <c r="E5">
+        <v>9.45945945945946</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
+      <c r="G5">
         <v>5.128205128205128</v>
       </c>
     </row>

--- a/location_group.xlsx
+++ b/location_group.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_count</t>
+          <t>anaemia_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_percent</t>
+          <t>anaemia_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_count</t>
+          <t>no anaemia_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_percent</t>
+          <t>no anaemia_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>23.28767123287671</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
       <c r="E2">
-        <v>22.97297297297298</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>66.66666666666666</v>
+        <v>43.83561643835616</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>44.5945945945946</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="F3">
         <v>24</v>
@@ -451,16 +451,16 @@
         </is>
       </c>
       <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>23.28767123287671</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
       <c r="E4">
-        <v>22.97297297297298</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -471,16 +471,16 @@
     </row>
     <row r="5">
       <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>9.58904109589041</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
       <c r="E5">
-        <v>9.45945945945946</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="F5">
         <v>2</v>
